--- a/output/ValueSet-sleep-quality-extended-vs.xlsx
+++ b/output/ValueSet-sleep-quality-extended-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T10:45:41+00:00</t>
+    <t>2024-12-26T11:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-extended-vs.xlsx
+++ b/output/ValueSet-sleep-quality-extended-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T11:41:10+00:00</t>
+    <t>2024-12-27T22:28:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-extended-vs.xlsx
+++ b/output/ValueSet-sleep-quality-extended-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T22:28:35+00:00</t>
+    <t>2025-01-02T17:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-extended-vs.xlsx
+++ b/output/ValueSet-sleep-quality-extended-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T17:46:41+00:00</t>
+    <t>2025-01-02T19:32:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-extended-vs.xlsx
+++ b/output/ValueSet-sleep-quality-extended-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T19:32:36+00:00</t>
+    <t>2025-01-03T09:54:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-extended-vs.xlsx
+++ b/output/ValueSet-sleep-quality-extended-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T09:54:59+00:00</t>
+    <t>2025-01-04T21:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-extended-vs.xlsx
+++ b/output/ValueSet-sleep-quality-extended-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T21:28:42+00:00</t>
+    <t>2025-01-04T22:09:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-extended-vs.xlsx
+++ b/output/ValueSet-sleep-quality-extended-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:09:55+00:00</t>
+    <t>2025-01-04T22:27:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-extended-vs.xlsx
+++ b/output/ValueSet-sleep-quality-extended-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:27:27+00:00</t>
+    <t>2025-01-04T22:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-extended-vs.xlsx
+++ b/output/ValueSet-sleep-quality-extended-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:47:01+00:00</t>
+    <t>2025-01-14T13:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-extended-vs.xlsx
+++ b/output/ValueSet-sleep-quality-extended-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T13:24:18+00:00</t>
+    <t>2025-01-24T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-extended-vs.xlsx
+++ b/output/ValueSet-sleep-quality-extended-vs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/ValueSet/sleep-quality-extended-vs</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/ValueSet/sleep-quality-extended-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T12:30:11+00:00</t>
+    <t>2025-08-20T10:40:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-extended-vs.xlsx
+++ b/output/ValueSet-sleep-quality-extended-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T10:40:04+01:00</t>
+    <t>2025-08-20T17:48:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Extended value set for sleep quality assessment</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -357,26 +360,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -398,7 +403,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>21</v>
@@ -406,34 +411,34 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -446,10 +451,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
